--- a/src/assets/Business.xlsx
+++ b/src/assets/Business.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\mse\src\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\mse-app\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D66A65-2F39-4C59-97E2-5EEFBA6A99D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6CCA489-625C-44A9-B6EF-74D480C6BEA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="721">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="722">
   <si>
     <t>Please tell us the business or organisation's name</t>
   </si>
@@ -2195,6 +2195,9 @@
   </si>
   <si>
     <t>Type8</t>
+  </si>
+  <si>
+    <t>Please select your method for each stakholders.</t>
   </si>
 </sst>
 </file>
@@ -2430,6 +2433,15 @@
   </cellStyles>
   <dxfs count="30">
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -2465,7 +2477,90 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12.5"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
         <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12.5"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
         <name val="Times New Roman"/>
         <family val="1"/>
         <scheme val="none"/>
@@ -2484,7 +2579,7 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2512,19 +2607,6 @@
         <scheme val="none"/>
       </font>
       <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12.5"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -2612,130 +2694,6 @@
       <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12.5"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12.5"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2765,6 +2723,51 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12.5"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3801,38 +3804,38 @@
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{A60D6CB3-EC9A-4DD9-A3BC-B65C309EF202}" name="No" dataDxfId="28"/>
     <tableColumn id="2" xr3:uid="{CDA01788-81E7-4A18-A2EB-34E205584A2C}" name="Question1" dataDxfId="27"/>
-    <tableColumn id="3" xr3:uid="{8FC72D66-331F-4508-8BAC-D8838F77ACE2}" name="Type1" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{A10A78E7-3C76-4C42-BC91-B2FE7842CE62}" name="Answer1" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{DCAB444F-BBE4-45DC-BBDB-BD93F4F47659}" name="Question2" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{949111E1-414D-4129-87CE-5E5EBE9EDE36}" name="Type2" dataDxfId="26"/>
-    <tableColumn id="7" xr3:uid="{E506DB45-156B-440E-A822-86DD13DC8C52}" name="Answer2" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{8FC72D66-331F-4508-8BAC-D8838F77ACE2}" name="Type1" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{A10A78E7-3C76-4C42-BC91-B2FE7842CE62}" name="Answer1" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{DCAB444F-BBE4-45DC-BBDB-BD93F4F47659}" name="Question2" dataDxfId="24"/>
+    <tableColumn id="6" xr3:uid="{949111E1-414D-4129-87CE-5E5EBE9EDE36}" name="Type2" dataDxfId="23"/>
+    <tableColumn id="7" xr3:uid="{E506DB45-156B-440E-A822-86DD13DC8C52}" name="Answer2" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{95645764-AD0E-43BF-B8B6-46DE72725CB7}" name="Table15" displayName="Table15" ref="H2:Y145" totalsRowShown="0" headerRowDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{95645764-AD0E-43BF-B8B6-46DE72725CB7}" name="Table15" displayName="Table15" ref="H2:Y145" totalsRowShown="0" headerRowDxfId="21">
   <autoFilter ref="H2:Y145" xr:uid="{BB9E21F7-9E0F-4F54-A5E9-736FDDF1EADF}"/>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{AE6FFEEC-4043-488F-80CE-0799D9F080A2}" name="Question3" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{FAE3AAA9-B10E-40E8-BDF5-32C37CDC878E}" name="Type3" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{5DEA0D24-FBAE-4B53-A543-D98D2AC3F682}" name="Answer3" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{16E82318-E844-4396-960C-FF1ABB90EF33}" name="Question4" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{5CB76132-E6E2-479B-A4C6-EEEB7F44360D}" name="Type4" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{11AFC09B-6521-4972-9EF1-8D13E55CA636}" name="Answer4" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{EE7E19F9-7666-4935-8C6E-F10AC05E8978}" name="Question5" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{3009E180-C1E3-460C-B672-3B13D611FB21}" name="Type5" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{B4A9D4D2-851F-4EF7-9988-1A8F8501A097}" name="Answer5" dataDxfId="23"/>
-    <tableColumn id="10" xr3:uid="{3C83A0ED-7F3F-4D15-81E9-3173762A3A07}" name="Question6" dataDxfId="22"/>
-    <tableColumn id="11" xr3:uid="{8E7CDBB1-2957-4686-939C-7C7123D5FBDA}" name="Type6" dataDxfId="4"/>
-    <tableColumn id="12" xr3:uid="{C82BB0A5-3C98-46D2-BC49-18C0520C3B23}" name="Answer6" dataDxfId="2"/>
-    <tableColumn id="13" xr3:uid="{C026C6AE-96AF-4A51-9C07-EF6807D60C8D}" name="Question7" dataDxfId="3"/>
-    <tableColumn id="14" xr3:uid="{B8D99C5F-FBE5-4435-8D9E-E18F5AFDE0F7}" name="Type7" dataDxfId="21"/>
-    <tableColumn id="15" xr3:uid="{A107C41C-735C-422F-BF29-30E886AEB440}" name="Answer7" dataDxfId="20"/>
-    <tableColumn id="16" xr3:uid="{04D18E15-F851-4BBD-A3FB-570D782B6550}" name="Question8" dataDxfId="19"/>
-    <tableColumn id="17" xr3:uid="{85A40972-AB8F-4114-B95B-4899057ECF09}" name="Type8" dataDxfId="1"/>
-    <tableColumn id="18" xr3:uid="{5FC08986-7E31-4ABA-99D5-E3A7CC231177}" name="Answer8" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{AE6FFEEC-4043-488F-80CE-0799D9F080A2}" name="Question3" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{FAE3AAA9-B10E-40E8-BDF5-32C37CDC878E}" name="Type3" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{5DEA0D24-FBAE-4B53-A543-D98D2AC3F682}" name="Answer3" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{16E82318-E844-4396-960C-FF1ABB90EF33}" name="Question4" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{5CB76132-E6E2-479B-A4C6-EEEB7F44360D}" name="Type4" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{11AFC09B-6521-4972-9EF1-8D13E55CA636}" name="Answer4" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{EE7E19F9-7666-4935-8C6E-F10AC05E8978}" name="Question5" dataDxfId="14"/>
+    <tableColumn id="8" xr3:uid="{3009E180-C1E3-460C-B672-3B13D611FB21}" name="Type5" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{B4A9D4D2-851F-4EF7-9988-1A8F8501A097}" name="Answer5" dataDxfId="12"/>
+    <tableColumn id="10" xr3:uid="{3C83A0ED-7F3F-4D15-81E9-3173762A3A07}" name="Question6" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{8E7CDBB1-2957-4686-939C-7C7123D5FBDA}" name="Type6" dataDxfId="10"/>
+    <tableColumn id="12" xr3:uid="{C82BB0A5-3C98-46D2-BC49-18C0520C3B23}" name="Answer6" dataDxfId="9"/>
+    <tableColumn id="13" xr3:uid="{C026C6AE-96AF-4A51-9C07-EF6807D60C8D}" name="Question7" dataDxfId="8"/>
+    <tableColumn id="14" xr3:uid="{B8D99C5F-FBE5-4435-8D9E-E18F5AFDE0F7}" name="Type7" dataDxfId="7"/>
+    <tableColumn id="15" xr3:uid="{A107C41C-735C-422F-BF29-30E886AEB440}" name="Answer7" dataDxfId="6"/>
+    <tableColumn id="16" xr3:uid="{04D18E15-F851-4BBD-A3FB-570D782B6550}" name="Question8" dataDxfId="5"/>
+    <tableColumn id="17" xr3:uid="{85A40972-AB8F-4114-B95B-4899057ECF09}" name="Type8" dataDxfId="4"/>
+    <tableColumn id="18" xr3:uid="{5FC08986-7E31-4ABA-99D5-E3A7CC231177}" name="Answer8" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3869,10 +3872,10 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{6757B584-4485-40C1-9B91-E74299B419A3}" name="Table11" displayName="Table11" ref="D1:D1048576" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{6757B584-4485-40C1-9B91-E74299B419A3}" name="Table11" displayName="Table11" ref="D1:D1048576" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
   <autoFilter ref="D1:D1048576" xr:uid="{E02E70A3-63F7-41EC-A9BF-4831EFF85CD3}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{3916ADC9-C2A7-4064-8425-5DB2651E6E85}" name="Currency Symbol" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{3916ADC9-C2A7-4064-8425-5DB2651E6E85}" name="Currency Symbol" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4174,8 +4177,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Y147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection sqref="A1:Y1"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4973,7 +4976,12 @@
       <c r="C28" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="E28" s="13"/>
+      <c r="E28" s="13" t="s">
+        <v>721</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>77</v>
+      </c>
       <c r="I28" s="21"/>
       <c r="M28" s="29"/>
       <c r="N28" s="6"/>
@@ -8029,7 +8037,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
-  <dataValidations count="31">
+  <dataValidations count="32">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5" xr:uid="{087BD651-098A-49ED-85D4-A16CFE13BE95}">
       <formula1>"Dr., Mr., Ms."</formula1>
     </dataValidation>
@@ -8127,6 +8135,9 @@
       <formula1>0</formula1>
       <formula2>99999999999</formula2>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G28" xr:uid="{63A86BBB-670D-4C87-B5C8-3B39FD1E6EAC}">
+      <formula1>"Internal, Primary, Secondary"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8191,7 +8202,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G232"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
